--- a/sample_tables.xlsx
+++ b/sample_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danig\Documents\GitHub\Research\DataTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FD0678-0D92-4713-AED7-80EBE1E77519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B262784-7E09-4787-8C8D-01B89C66DAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{94E6D992-0F2D-4B9D-BD81-1E9E3BDAA891}"/>
+    <workbookView xWindow="-1150" yWindow="10690" windowWidth="22620" windowHeight="13500" activeTab="2" xr2:uid="{94E6D992-0F2D-4B9D-BD81-1E9E3BDAA891}"/>
   </bookViews>
   <sheets>
     <sheet name="VALUES" sheetId="10" r:id="rId1"/>
@@ -276,9 +276,6 @@
     <t>DS0_anime_color1.png</t>
   </si>
   <si>
-    <t xml:space="preserve">In the 'Watching' column, count how many values exceed the value of '80' </t>
-  </si>
-  <si>
     <t>DS0_anime_zebra2.png</t>
   </si>
   <si>
@@ -292,9 +289,6 @@
   </si>
   <si>
     <t>DS0_anime_bar4.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the 'On-Hold' column, count how many values exceed the value of '60' </t>
   </si>
   <si>
     <t xml:space="preserve">Determine which of the last 5 columns is most positively correlated with the column named 'Episodes' </t>
@@ -372,6 +366,12 @@
   <si>
     <t xml:space="preserve">In the 'Plan
  to Watch' column, find the anime with a value equal to '32' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'Completed' column, count how many values exceed the value of '60' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 'On-Hold' column, count how many values exceed the value of '50' </t>
   </si>
 </sst>
 </file>
@@ -989,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE75E392-E594-4944-8192-EC287EDF0175}">
   <dimension ref="A1:BP21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="118" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView topLeftCell="I1" zoomScale="118" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,22 +1121,22 @@
         <v>1</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I2" s="13">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="J2" s="13">
         <v>0</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L2" s="13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M2" s="13" t="s">
         <v>15</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="3" spans="1:68" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="13">
         <v>2</v>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L3" s="13">
         <v>6</v>
@@ -1267,7 +1267,7 @@
     </row>
     <row r="4" spans="1:68" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="13">
         <v>3</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L4" s="13">
         <v>5</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="5" spans="1:68" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="13">
         <v>4</v>
@@ -1373,16 +1373,16 @@
         <v>22</v>
       </c>
       <c r="I5" s="13">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J5" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="L5" s="13">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M5" s="13" t="s">
         <v>23</v>
@@ -1457,7 +1457,7 @@
       <c r="I6" s="35"/>
       <c r="J6" s="35"/>
       <c r="K6" s="37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L6" s="35" t="s">
         <v>35</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="7" spans="1:68" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="35">
         <v>2</v>
@@ -1494,7 +1494,7 @@
       <c r="I7" s="35"/>
       <c r="J7" s="35"/>
       <c r="K7" s="37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L7" s="35" t="s">
         <v>35</v>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="8" spans="1:68" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="35">
         <v>3</v>
@@ -1531,7 +1531,7 @@
       <c r="I8" s="35"/>
       <c r="J8" s="35"/>
       <c r="K8" s="37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L8" s="35" t="s">
         <v>35</v>
@@ -1542,7 +1542,7 @@
     </row>
     <row r="9" spans="1:68" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="35">
         <v>4</v>
@@ -1568,7 +1568,7 @@
       <c r="I9" s="35"/>
       <c r="J9" s="35"/>
       <c r="K9" s="37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L9" s="35" t="s">
         <v>35</v>
@@ -1603,22 +1603,22 @@
         <v>18</v>
       </c>
       <c r="I10" s="39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J10" s="39"/>
       <c r="K10" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" s="39" t="s">
         <v>79</v>
-      </c>
-      <c r="L10" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="M10" s="39" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:68" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="39">
         <v>2</v>
@@ -1642,22 +1642,22 @@
         <v>17</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J11" s="39"/>
       <c r="K11" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="M11" s="39" t="s">
         <v>83</v>
-      </c>
-      <c r="L11" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="M11" s="39" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:68" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" s="39">
         <v>3</v>
@@ -1681,22 +1681,22 @@
         <v>15</v>
       </c>
       <c r="I12" s="39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J12" s="39"/>
       <c r="K12" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="L12" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="M12" s="39" t="s">
         <v>87</v>
-      </c>
-      <c r="L12" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="M12" s="39" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:68" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="39">
         <v>4</v>
@@ -1720,17 +1720,17 @@
         <v>23</v>
       </c>
       <c r="I13" s="39" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J13" s="39"/>
       <c r="K13" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="M13" s="39" t="s">
         <v>91</v>
-      </c>
-      <c r="L13" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="M13" s="39" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:68" s="42" customFormat="1" x14ac:dyDescent="0.25">
@@ -1761,7 +1761,7 @@
       <c r="I14" s="43"/>
       <c r="J14" s="43"/>
       <c r="K14" s="45" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L14" s="43">
         <v>28.896551724137932</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="15" spans="1:68" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" s="43">
         <v>2</v>
@@ -1798,10 +1798,10 @@
       <c r="I15" s="43"/>
       <c r="J15" s="43"/>
       <c r="K15" s="45" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L15" s="43">
-        <v>52.310344827586206</v>
+        <v>52.310344827586199</v>
       </c>
       <c r="M15" s="43" t="s">
         <v>21</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="16" spans="1:68" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="43">
         <v>3</v>
@@ -1835,7 +1835,7 @@
       <c r="I16" s="43"/>
       <c r="J16" s="43"/>
       <c r="K16" s="45" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L16" s="43">
         <v>63.068965517241381</v>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="17" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17" s="43">
         <v>4</v>
@@ -1872,7 +1872,7 @@
       <c r="I17" s="43"/>
       <c r="J17" s="43"/>
       <c r="K17" s="45" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L17" s="43">
         <v>50.241379310344826</v>
@@ -1913,7 +1913,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L18" s="13" t="s">
         <v>59</v>
@@ -1924,7 +1924,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" s="13">
         <v>2</v>
@@ -1954,7 +1954,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L19" s="13" t="s">
         <v>51</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B20" s="13">
         <v>3</v>
@@ -1995,7 +1995,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L20" s="13" t="s">
         <v>41</v>
@@ -2006,7 +2006,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B21" s="13">
         <v>4</v>
@@ -2036,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L21" s="13" t="s">
         <v>57</v>
@@ -2054,7 +2054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700DFA64-0F6F-4CD7-8125-1F1598C774F9}">
   <dimension ref="A1:BP21"/>
   <sheetViews>
-    <sheetView zoomScale="118" zoomScaleNormal="131" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="118" zoomScaleNormal="131" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -2454,19 +2454,19 @@
         <v>22</v>
       </c>
       <c r="I5" s="13">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J5" s="13">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K5" s="15" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">In the 'On-Hold' column, count how many values exceed the value of '50' </v>
+        <v xml:space="preserve">In the 'On-Hold' column, count how many values exceed the value of '53' </v>
       </c>
       <c r="L5" s="13">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M5" s="13" t="s">
         <v>23</v>
@@ -3366,8 +3366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DCBDE1-CBA9-443B-9602-67C1589E4840}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:N1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="61" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4780,7 +4780,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:N33"/>
+      <selection sqref="A1:N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6220,8 +6220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D67901-18CB-4D03-BA2F-791ED69C5872}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="70" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7630,7 +7630,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FEBFF06-1EA3-423A-B086-D35C0BA46852}">
   <dimension ref="B1:M32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="70" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:N32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9142,6 +9144,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J31">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DCE78AD6-162E-45F4-86E6-A93F2872876F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
@@ -9154,18 +9168,6 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="8">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DCE78AD6-162E-45F4-86E6-A93F2872876F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
     <cfRule type="colorScale" priority="37">
@@ -9234,6 +9236,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L31">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5CC836EA-CF00-4BFA-AB79-D15CE7AFB123}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -9246,7 +9260,29 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="4">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L32">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M31">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9254,32 +9290,10 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5CC836EA-CF00-4BFA-AB79-D15CE7AFB123}</x14:id>
+          <x14:id>{CF1529C8-7D17-45AC-B706-28DFDA309DCC}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L32">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M31">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -9289,18 +9303,6 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{D866D858-121D-4437-881F-161079AF9745}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CF1529C8-7D17-45AC-B706-28DFDA309DCC}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9481,20 +9483,20 @@
           <xm:sqref>I3:I31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5A10EA8C-F875-4772-898D-BCC0A6FAC3A8}">
+          <x14:cfRule type="dataBar" id="{DCE78AD6-162E-45F4-86E6-A93F2872876F}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
               <x14:borderColor rgb="FFFF555A"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:negativeBorderColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{DCE78AD6-162E-45F4-86E6-A93F2872876F}">
+          <x14:cfRule type="dataBar" id="{5A10EA8C-F875-4772-898D-BCC0A6FAC3A8}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
               <x14:borderColor rgb="FFFF555A"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:negativeBorderColor rgb="FFFF0000"/>
@@ -9527,6 +9529,16 @@
           <xm:sqref>K3:K31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5CC836EA-CF00-4BFA-AB79-D15CE7AFB123}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
           <x14:cfRule type="dataBar" id="{0B9AB73A-9BBF-4508-BF39-FFB3A0251037}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="min"/>
@@ -9537,7 +9549,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{5CC836EA-CF00-4BFA-AB79-D15CE7AFB123}">
+          <xm:sqref>L3:L31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CF1529C8-7D17-45AC-B706-28DFDA309DCC}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -9547,23 +9562,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>L3:L31</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D866D858-121D-4437-881F-161079AF9745}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
-              <x14:borderColor rgb="FFFF555A"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{CF1529C8-7D17-45AC-B706-28DFDA309DCC}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
               <x14:borderColor rgb="FFFF555A"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:negativeBorderColor rgb="FFFF0000"/>

--- a/sample_tables.xlsx
+++ b/sample_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danig\Documents\GitHub\Research\DataTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B262784-7E09-4787-8C8D-01B89C66DAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813E9170-F71A-43D2-8C5B-804D71355BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1150" yWindow="10690" windowWidth="22620" windowHeight="13500" activeTab="2" xr2:uid="{94E6D992-0F2D-4B9D-BD81-1E9E3BDAA891}"/>
+    <workbookView minimized="1" xWindow="240" yWindow="345" windowWidth="18720" windowHeight="10320" activeTab="2" xr2:uid="{94E6D992-0F2D-4B9D-BD81-1E9E3BDAA891}"/>
   </bookViews>
   <sheets>
     <sheet name="VALUES" sheetId="10" r:id="rId1"/>

--- a/sample_tables.xlsx
+++ b/sample_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danig\Documents\GitHub\Research\DataTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813E9170-F71A-43D2-8C5B-804D71355BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B428F534-5786-49E4-813D-E4F5568429B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="345" windowWidth="18720" windowHeight="10320" activeTab="2" xr2:uid="{94E6D992-0F2D-4B9D-BD81-1E9E3BDAA891}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{94E6D992-0F2D-4B9D-BD81-1E9E3BDAA891}"/>
   </bookViews>
   <sheets>
     <sheet name="VALUES" sheetId="10" r:id="rId1"/>
@@ -691,9 +691,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -731,7 +731,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -837,7 +837,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -979,7 +979,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -993,19 +993,19 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="95.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="95.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="44.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="44.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:68" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1101,7 +1101,7 @@
       <c r="BO1" s="10"/>
       <c r="BP1" s="10"/>
     </row>
-    <row r="2" spans="1:68" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:68" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>69</v>
       </c>
@@ -1183,7 +1183,7 @@
       <c r="BO2" s="18"/>
       <c r="BP2" s="18"/>
     </row>
-    <row r="3" spans="1:68" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:68" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>70</v>
       </c>
@@ -1265,7 +1265,7 @@
       <c r="BO3" s="18"/>
       <c r="BP3" s="18"/>
     </row>
-    <row r="4" spans="1:68" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:68" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>72</v>
       </c>
@@ -1347,7 +1347,7 @@
       <c r="BO4" s="18"/>
       <c r="BP4" s="18"/>
     </row>
-    <row r="5" spans="1:68" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:68" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>74</v>
       </c>
@@ -1429,7 +1429,7 @@
       <c r="BO5" s="18"/>
       <c r="BP5" s="18"/>
     </row>
-    <row r="6" spans="1:68" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:68" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="34" t="s">
         <v>69</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:68" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:68" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="34" t="s">
         <v>70</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:68" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:68" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="34" t="s">
         <v>72</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:68" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:68" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="34" t="s">
         <v>74</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:68" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:68" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="38" t="s">
         <v>69</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:68" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:68" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="38" t="s">
         <v>70</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:68" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:68" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="38" t="s">
         <v>72</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:68" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:68" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="38" t="s">
         <v>74</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:68" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:68" s="42" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="42" t="s">
         <v>69</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:68" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:68" s="42" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="42" t="s">
         <v>70</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:68" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:68" s="42" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="42" t="s">
         <v>72</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="42" t="s">
         <v>74</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>69</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>70</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>72</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>74</v>
       </c>
@@ -2054,22 +2054,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700DFA64-0F6F-4CD7-8125-1F1598C774F9}">
   <dimension ref="A1:BP21"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="118" zoomScaleNormal="131" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="118" zoomScaleNormal="131" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="95.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="95.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="44.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:68" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2165,7 +2165,7 @@
       <c r="BO1" s="10"/>
       <c r="BP1" s="10"/>
     </row>
-    <row r="2" spans="1:68" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:68" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="str">
         <f>"DS"&amp;C2 &amp;"_"&amp;D2 &amp;"_"&amp;E2 &amp;F2&amp;".png"</f>
         <v>DS0_anime_color1.png</v>
@@ -2252,7 +2252,7 @@
       <c r="BO2" s="18"/>
       <c r="BP2" s="18"/>
     </row>
-    <row r="3" spans="1:68" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:68" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="str">
         <f t="shared" ref="A3:A5" si="0">"DS"&amp;C3 &amp;"_"&amp;D3 &amp;"_"&amp;E3 &amp;F3&amp;".png"</f>
         <v>DS0_anime_zebra2.png</v>
@@ -2339,7 +2339,7 @@
       <c r="BO3" s="18"/>
       <c r="BP3" s="18"/>
     </row>
-    <row r="4" spans="1:68" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:68" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="str">
         <f t="shared" si="0"/>
         <v>DS0_anime_plain3.png</v>
@@ -2426,7 +2426,7 @@
       <c r="BO4" s="18"/>
       <c r="BP4" s="18"/>
     </row>
-    <row r="5" spans="1:68" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:68" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="str">
         <f t="shared" si="0"/>
         <v>DS0_anime_bar4.png</v>
@@ -2513,7 +2513,7 @@
       <c r="BO5" s="18"/>
       <c r="BP5" s="18"/>
     </row>
-    <row r="6" spans="1:68" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:68" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="34" t="str">
         <f>"DS"&amp;C6 &amp;"_"&amp;D6 &amp;"_"&amp;E6 &amp;F6&amp;".png"</f>
         <v>DS0_anime_color1.png</v>
@@ -2554,7 +2554,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:68" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:68" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="34" t="str">
         <f t="shared" ref="A7:A9" si="4">"DS"&amp;C7 &amp;"_"&amp;D7 &amp;"_"&amp;E7 &amp;F7&amp;".png"</f>
         <v>DS0_anime_zebra2.png</v>
@@ -2595,7 +2595,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:68" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:68" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="34" t="str">
         <f t="shared" si="4"/>
         <v>DS0_anime_plain3.png</v>
@@ -2636,7 +2636,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:68" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:68" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="34" t="str">
         <f t="shared" si="4"/>
         <v>DS0_anime_bar4.png</v>
@@ -2677,7 +2677,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:68" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:68" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="38" t="str">
         <f>"DS"&amp;C10 &amp;"_"&amp;D10 &amp;"_"&amp;E10 &amp;F10&amp;".png"</f>
         <v>DS0_anime_color1.png</v>
@@ -2758,7 +2758,7 @@
         <v>20 9 31</v>
       </c>
     </row>
-    <row r="11" spans="1:68" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:68" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="38" t="str">
         <f t="shared" ref="A11:A13" si="6">"DS"&amp;C11 &amp;"_"&amp;D11 &amp;"_"&amp;E11 &amp;F11&amp;".png"</f>
         <v>DS0_anime_zebra2.png</v>
@@ -2839,7 +2839,7 @@
         <v>17 27 29</v>
       </c>
     </row>
-    <row r="12" spans="1:68" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:68" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="38" t="str">
         <f t="shared" si="6"/>
         <v>DS0_anime_plain3.png</v>
@@ -2922,7 +2922,7 @@
         <v>27 23 5</v>
       </c>
     </row>
-    <row r="13" spans="1:68" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:68" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="38" t="str">
         <f t="shared" si="6"/>
         <v>DS0_anime_bar4.png</v>
@@ -3003,7 +3003,7 @@
         <v>28 11 13</v>
       </c>
     </row>
-    <row r="14" spans="1:68" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:68" s="42" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="42" t="str">
         <f>"DS"&amp;C14 &amp;"_"&amp;D14 &amp;"_"&amp;E14 &amp;F14&amp;".png"</f>
         <v>DS0_anime_color1.png</v>
@@ -3044,7 +3044,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:68" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:68" s="42" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="42" t="str">
         <f t="shared" ref="A15:A17" si="17">"DS"&amp;C15 &amp;"_"&amp;D15 &amp;"_"&amp;E15 &amp;F15&amp;".png"</f>
         <v>DS0_anime_zebra2.png</v>
@@ -3085,7 +3085,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:68" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:68" s="42" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="42" t="str">
         <f t="shared" si="17"/>
         <v>DS0_anime_plain3.png</v>
@@ -3126,7 +3126,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="42" t="str">
         <f t="shared" si="17"/>
         <v>DS0_anime_bar4.png</v>
@@ -3167,7 +3167,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="str">
         <f>"DS"&amp;C18 &amp;"_"&amp;D18 &amp;"_"&amp;E18 &amp;F18&amp;".png"</f>
         <v>DS0_anime_color1.png</v>
@@ -3214,7 +3214,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="str">
         <f t="shared" ref="A19:A21" si="20">"DS"&amp;C19 &amp;"_"&amp;D19 &amp;"_"&amp;E19 &amp;F19&amp;".png"</f>
         <v>DS0_anime_zebra2.png</v>
@@ -3261,7 +3261,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="str">
         <f t="shared" si="20"/>
         <v>DS0_anime_plain3.png</v>
@@ -3308,7 +3308,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="str">
         <f t="shared" si="20"/>
         <v>DS0_anime_bar4.png</v>
@@ -3366,19 +3366,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DCBDE1-CBA9-443B-9602-67C1589E4840}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="61" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="61" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" customWidth="1"/>
-    <col min="3" max="13" width="16.42578125" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="35.54296875" customWidth="1"/>
+    <col min="3" max="13" width="16.453125" customWidth="1"/>
+    <col min="14" max="14" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
@@ -3392,7 +3392,7 @@
       <c r="M1" s="19"/>
       <c r="N1" s="19"/>
     </row>
-    <row r="2" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="37" x14ac:dyDescent="0.35">
       <c r="A2" s="20"/>
       <c r="B2" s="21" t="s">
         <v>28</v>
@@ -3431,7 +3431,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B3" s="23" t="s">
         <v>64</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B4" s="23" t="s">
         <v>63</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B5" s="23" t="s">
         <v>52</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B6" s="23" t="s">
         <v>58</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B7" s="23" t="s">
         <v>46</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B8" s="23" t="s">
         <v>56</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B9" s="23" t="s">
         <v>50</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B10" s="23" t="s">
         <v>53</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B11" s="23" t="s">
         <v>41</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B12" s="23" t="s">
         <v>66</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B13" s="23" t="s">
         <v>67</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B14" s="23" t="s">
         <v>42</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B15" s="23" t="s">
         <v>49</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B16" s="23" t="s">
         <v>59</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B17" s="23" t="s">
         <v>55</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B18" s="23" t="s">
         <v>57</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B19" s="23" t="s">
         <v>48</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B20" s="23" t="s">
         <v>51</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B21" s="23" t="s">
         <v>45</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B22" s="23" t="s">
         <v>60</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B23" s="23" t="s">
         <v>68</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B24" s="23" t="s">
         <v>40</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B25" s="23" t="s">
         <v>44</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B26" s="23" t="s">
         <v>47</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B27" s="23" t="s">
         <v>54</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B28" s="23" t="s">
         <v>43</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B29" s="23" t="s">
         <v>65</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B30" s="23" t="s">
         <v>61</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B31" s="23" t="s">
         <v>62</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B32" s="25"/>
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
@@ -4783,15 +4783,15 @@
       <selection sqref="A1:N32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" customWidth="1"/>
-    <col min="3" max="13" width="16.42578125" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="35.54296875" customWidth="1"/>
+    <col min="3" max="13" width="16.453125" customWidth="1"/>
+    <col min="14" max="14" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="25"/>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -4805,7 +4805,7 @@
       <c r="L1" s="19"/>
       <c r="M1" s="19"/>
     </row>
-    <row r="2" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="37" x14ac:dyDescent="0.35">
       <c r="B2" s="22" t="s">
         <v>28</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A3" s="27"/>
       <c r="B3" s="28" t="s">
         <v>64</v>
@@ -4882,7 +4882,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A4" s="27"/>
       <c r="B4" s="23" t="s">
         <v>63</v>
@@ -4921,7 +4921,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A5" s="27"/>
       <c r="B5" s="28" t="s">
         <v>52</v>
@@ -4960,7 +4960,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A6" s="27"/>
       <c r="B6" s="23" t="s">
         <v>58</v>
@@ -4999,7 +4999,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A7" s="27"/>
       <c r="B7" s="28" t="s">
         <v>46</v>
@@ -5038,7 +5038,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A8" s="27"/>
       <c r="B8" s="23" t="s">
         <v>56</v>
@@ -5077,7 +5077,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A9" s="27"/>
       <c r="B9" s="28" t="s">
         <v>50</v>
@@ -5116,7 +5116,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A10" s="27"/>
       <c r="B10" s="23" t="s">
         <v>53</v>
@@ -5155,7 +5155,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A11" s="27"/>
       <c r="B11" s="28" t="s">
         <v>41</v>
@@ -5194,7 +5194,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A12" s="27"/>
       <c r="B12" s="23" t="s">
         <v>66</v>
@@ -5233,7 +5233,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A13" s="27"/>
       <c r="B13" s="28" t="s">
         <v>67</v>
@@ -5272,7 +5272,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A14" s="27"/>
       <c r="B14" s="23" t="s">
         <v>42</v>
@@ -5311,7 +5311,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A15" s="27"/>
       <c r="B15" s="28" t="s">
         <v>49</v>
@@ -5350,7 +5350,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A16" s="27"/>
       <c r="B16" s="23" t="s">
         <v>59</v>
@@ -5389,7 +5389,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A17" s="27"/>
       <c r="B17" s="28" t="s">
         <v>55</v>
@@ -5428,7 +5428,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A18" s="27"/>
       <c r="B18" s="23" t="s">
         <v>57</v>
@@ -5467,7 +5467,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A19" s="27"/>
       <c r="B19" s="28" t="s">
         <v>48</v>
@@ -5506,7 +5506,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A20" s="27"/>
       <c r="B20" s="23" t="s">
         <v>51</v>
@@ -5545,7 +5545,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A21" s="27"/>
       <c r="B21" s="28" t="s">
         <v>45</v>
@@ -5584,7 +5584,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A22" s="27"/>
       <c r="B22" s="23" t="s">
         <v>60</v>
@@ -5623,7 +5623,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A23" s="27"/>
       <c r="B23" s="28" t="s">
         <v>68</v>
@@ -5662,7 +5662,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A24" s="27"/>
       <c r="B24" s="23" t="s">
         <v>40</v>
@@ -5701,7 +5701,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A25" s="27"/>
       <c r="B25" s="28" t="s">
         <v>44</v>
@@ -5740,7 +5740,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A26" s="27"/>
       <c r="B26" s="23" t="s">
         <v>47</v>
@@ -5779,7 +5779,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A27" s="27"/>
       <c r="B27" s="28" t="s">
         <v>54</v>
@@ -5818,7 +5818,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A28" s="27"/>
       <c r="B28" s="23" t="s">
         <v>43</v>
@@ -5857,7 +5857,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A29" s="27"/>
       <c r="B29" s="28" t="s">
         <v>65</v>
@@ -5896,7 +5896,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A30" s="27"/>
       <c r="B30" s="23" t="s">
         <v>61</v>
@@ -5935,7 +5935,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A31" s="27"/>
       <c r="B31" s="28" t="s">
         <v>62</v>
@@ -5974,7 +5974,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B32" s="25"/>
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
@@ -5988,7 +5988,7 @@
       <c r="L32" s="26"/>
       <c r="M32" s="26"/>
     </row>
-    <row r="33" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B33" s="25"/>
     </row>
   </sheetData>
@@ -6224,15 +6224,15 @@
       <selection sqref="A1:N32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" customWidth="1"/>
-    <col min="3" max="13" width="16.42578125" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="35.54296875" customWidth="1"/>
+    <col min="3" max="13" width="16.453125" customWidth="1"/>
+    <col min="14" max="14" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="32"/>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -6246,7 +6246,7 @@
       <c r="L1" s="19"/>
       <c r="M1" s="19"/>
     </row>
-    <row r="2" spans="1:13" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="37" x14ac:dyDescent="0.45">
       <c r="A2" s="33"/>
       <c r="B2" s="22" t="s">
         <v>28</v>
@@ -6285,7 +6285,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B3" s="23" t="s">
         <v>64</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B4" s="23" t="s">
         <v>63</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B5" s="23" t="s">
         <v>52</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B6" s="23" t="s">
         <v>58</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B7" s="23" t="s">
         <v>46</v>
       </c>
@@ -6475,7 +6475,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B8" s="23" t="s">
         <v>56</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B9" s="23" t="s">
         <v>50</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B10" s="23" t="s">
         <v>53</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B11" s="23" t="s">
         <v>41</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B12" s="23" t="s">
         <v>66</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B13" s="23" t="s">
         <v>67</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B14" s="23" t="s">
         <v>42</v>
       </c>
@@ -6741,7 +6741,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B15" s="23" t="s">
         <v>49</v>
       </c>
@@ -6779,7 +6779,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B16" s="23" t="s">
         <v>59</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B17" s="23" t="s">
         <v>55</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B18" s="23" t="s">
         <v>57</v>
       </c>
@@ -6893,7 +6893,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B19" s="23" t="s">
         <v>48</v>
       </c>
@@ -6931,7 +6931,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B20" s="23" t="s">
         <v>51</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B21" s="23" t="s">
         <v>45</v>
       </c>
@@ -7007,7 +7007,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B22" s="23" t="s">
         <v>60</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B23" s="23" t="s">
         <v>68</v>
       </c>
@@ -7083,7 +7083,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B24" s="23" t="s">
         <v>40</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B25" s="23" t="s">
         <v>44</v>
       </c>
@@ -7159,7 +7159,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B26" s="23" t="s">
         <v>47</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B27" s="23" t="s">
         <v>54</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B28" s="23" t="s">
         <v>43</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B29" s="23" t="s">
         <v>65</v>
       </c>
@@ -7311,7 +7311,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B30" s="23" t="s">
         <v>61</v>
       </c>
@@ -7349,7 +7349,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B31" s="23" t="s">
         <v>62</v>
       </c>
@@ -7387,7 +7387,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B32" s="25"/>
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
@@ -7634,15 +7634,15 @@
       <selection sqref="A1:N32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" customWidth="1"/>
-    <col min="3" max="13" width="16.42578125" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="35.54296875" customWidth="1"/>
+    <col min="3" max="13" width="16.453125" customWidth="1"/>
+    <col min="14" max="14" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="32"/>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -7656,7 +7656,7 @@
       <c r="L1" s="19"/>
       <c r="M1" s="19"/>
     </row>
-    <row r="2" spans="2:13" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="37" x14ac:dyDescent="0.35">
       <c r="B2" s="22" t="s">
         <v>28</v>
       </c>
@@ -7694,7 +7694,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B3" s="23" t="s">
         <v>64</v>
       </c>
@@ -7732,7 +7732,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B4" s="23" t="s">
         <v>63</v>
       </c>
@@ -7770,7 +7770,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B5" s="23" t="s">
         <v>52</v>
       </c>
@@ -7808,7 +7808,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B6" s="23" t="s">
         <v>58</v>
       </c>
@@ -7846,7 +7846,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B7" s="23" t="s">
         <v>46</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B8" s="23" t="s">
         <v>56</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B9" s="23" t="s">
         <v>50</v>
       </c>
@@ -7960,7 +7960,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B10" s="23" t="s">
         <v>53</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B11" s="23" t="s">
         <v>41</v>
       </c>
@@ -8036,7 +8036,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B12" s="23" t="s">
         <v>66</v>
       </c>
@@ -8074,7 +8074,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B13" s="23" t="s">
         <v>67</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B14" s="23" t="s">
         <v>42</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B15" s="23" t="s">
         <v>49</v>
       </c>
@@ -8188,7 +8188,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B16" s="23" t="s">
         <v>59</v>
       </c>
@@ -8226,7 +8226,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B17" s="23" t="s">
         <v>55</v>
       </c>
@@ -8264,7 +8264,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B18" s="23" t="s">
         <v>57</v>
       </c>
@@ -8302,7 +8302,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B19" s="23" t="s">
         <v>48</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B20" s="23" t="s">
         <v>51</v>
       </c>
@@ -8378,7 +8378,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B21" s="23" t="s">
         <v>45</v>
       </c>
@@ -8416,7 +8416,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B22" s="23" t="s">
         <v>60</v>
       </c>
@@ -8454,7 +8454,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B23" s="23" t="s">
         <v>68</v>
       </c>
@@ -8492,7 +8492,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B24" s="23" t="s">
         <v>40</v>
       </c>
@@ -8530,7 +8530,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B25" s="23" t="s">
         <v>44</v>
       </c>
@@ -8568,7 +8568,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B26" s="23" t="s">
         <v>47</v>
       </c>
@@ -8606,7 +8606,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B27" s="23" t="s">
         <v>54</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B28" s="23" t="s">
         <v>43</v>
       </c>
@@ -8682,7 +8682,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B29" s="23" t="s">
         <v>65</v>
       </c>
@@ -8720,7 +8720,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B30" s="23" t="s">
         <v>61</v>
       </c>
@@ -8758,7 +8758,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B31" s="23" t="s">
         <v>62</v>
       </c>
@@ -8796,7 +8796,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B32" s="25"/>
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
